--- a/design/요구사항정의서.xlsx
+++ b/design/요구사항정의서.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlsth\Desktop\키오스크 프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlsth\Desktop\팀 프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4636B26-B783-4551-8577-A10260473DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8070" yWindow="255" windowWidth="19095" windowHeight="15345" activeTab="2" xr2:uid="{1CF8A911-9747-48A7-B31D-E5078D3F5453}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의서" sheetId="11" r:id="rId1"/>
     <sheet name="테이블 정의" sheetId="8" r:id="rId2"/>
     <sheet name="요구사항 명세서" sheetId="10" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="118">
   <si>
     <t>업무</t>
   </si>
@@ -44,12 +43,6 @@
     <t>기능</t>
   </si>
   <si>
-    <t>상단바</t>
-  </si>
-  <si>
-    <t>홈버튼</t>
-  </si>
-  <si>
     <t>공통</t>
   </si>
   <si>
@@ -57,22 +50,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입 버튼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입창으로 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>관련ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>게시글목록 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>공통</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -107,14 +88,6 @@
   </si>
   <si>
     <t>로그인/아웃 버튼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인창 이동 / 로그아웃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지이동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -229,12 +202,352 @@
     <t>HOME-003</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>강을원, 구병희, 권진솔, 서찬기, 서현진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>협업툴(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>작하</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">고 해서 만든 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>툴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOME-004</t>
+  </si>
+  <si>
+    <t>HOME-005</t>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 기능, 아이디 기억하기(쿠키), 회원가입, 아이디/비밀번호 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름, 아이디 중복 체크, 비밀번호/비밀번호 확인, 이메일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름, 이메일 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디, 이메일 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크스페이스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크스페이스 생성, 선택, 삭제, 초대 수락/거절</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃(세션종료) 후 메인화면으로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOME-001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크스페이스 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크스페이스 이름 설정, 멤버 초대 요청(ID)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크스페이스 선택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버로 소속된 워크스페이스로 액세스할 목록 선택</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크스페이스 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신이 관리하는 워크스페이스 목록 선택 후 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크스페이스 초대 수락/거절</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구성원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 생성/수정/삭제 및 공지사항 내용 알림톡(생성/수정 시)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캘린더 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 추가/수정/삭제 및 일정내용 알림톡(생성/수정/삭제 시)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>칸반보드 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>칸반보드 생성/수정/삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 글 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 글 생성/수정/삭제(파일 업로드 및 다운로드)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메신저</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">개인채팅(본인, 알림봇 포함) 및 그룹채팅 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 업로드/다운로드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 진행 시 파일 업로드 및 다운로드 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타 구성원의 채팅 메시지에 대한 답글 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방 개설</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 워크스페이스 내의 특정 구성원 간의 그룹채팅 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 브라우저</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 워크스페이스 내 자신이 포함된 채팅방 및 게시판의 업로드 된 파일관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOME-019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대받은 워크스페이스 초대 내용 수락/거절(수락/거절-&gt;워크홈으로)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOME-006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>온/오프라인 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부가서비스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 워크스페이스 내 타 구성원들의 로그인/로그아웃 상태 표시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORK-001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORK-002</t>
+  </si>
+  <si>
+    <t>WORK-003</t>
+  </si>
+  <si>
+    <t>WORK-004</t>
+  </si>
+  <si>
+    <t>SPACE-001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPACE-002</t>
+  </si>
+  <si>
+    <t>SPACE-003</t>
+  </si>
+  <si>
+    <t>SPACE-004</t>
+  </si>
+  <si>
+    <t>SPACE-005</t>
+  </si>
+  <si>
+    <t>CHAT-001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAT-002</t>
+  </si>
+  <si>
+    <t>CHAT-003</t>
+  </si>
+  <si>
+    <t>CHAT-004</t>
+  </si>
+  <si>
+    <t>FILE-001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONOFF-001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +604,14 @@
       <name val="함초롬바탕"/>
       <family val="1"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -598,7 +919,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -647,24 +968,21 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -674,11 +992,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -686,6 +1007,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -695,49 +1049,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1103,75 +1418,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE6745E-BC58-4BA2-8B87-11A0FEA84E42}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:H8"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.125" customWidth="1"/>
-    <col min="7" max="7" width="36.875" customWidth="1"/>
+    <col min="2" max="2" width="10.08203125" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27.08203125" customWidth="1"/>
+    <col min="7" max="7" width="36.83203125" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
+    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="25"/>
       <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="G3" s="26">
+        <v>44474</v>
+      </c>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -1188,99 +1509,456 @@
         <v>4</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="18"/>
+        <v>52</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="17"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="18"/>
+        <v>54</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="17"/>
       <c r="H8" s="1"/>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
+  <mergeCells count="28">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B9:B1048576">
+  <conditionalFormatting sqref="B26:B1048576">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="N">
-      <formula>NOT(ISERROR(SEARCH("N",B9)))</formula>
+      <formula>NOT(ISERROR(SEARCH("N",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
@@ -1294,14 +1972,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EAA7B4-D481-4092-9641-57311CAF744E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.75" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
@@ -1309,54 +1987,54 @@
     <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="7" width="10.75" style="6" customWidth="1"/>
     <col min="8" max="8" width="13" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="27" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
       <c r="E1" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
     </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="H2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1369,7 +2047,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1382,7 +2060,7 @@
       <c r="H4" s="7"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1395,7 +2073,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1408,7 +2086,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1421,7 +2099,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1434,7 +2112,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -1447,7 +2125,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -1460,7 +2138,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1473,7 +2151,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1486,51 +2164,51 @@
       <c r="H12" s="7"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="27" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
     </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="H15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="7">
         <v>1</v>
       </c>
@@ -1543,7 +2221,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="7">
         <v>2</v>
       </c>
@@ -1556,7 +2234,7 @@
       <c r="H17" s="7"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="7">
         <v>3</v>
       </c>
@@ -1569,7 +2247,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="7">
         <v>4</v>
       </c>
@@ -1582,7 +2260,7 @@
       <c r="H19" s="7"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="7">
         <v>5</v>
       </c>
@@ -1595,7 +2273,7 @@
       <c r="H20" s="7"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="7">
         <v>6</v>
       </c>
@@ -1608,51 +2286,51 @@
       <c r="H21" s="7"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="27" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
       <c r="E23" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
     </row>
-    <row r="24" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="H24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="7">
         <v>1</v>
       </c>
@@ -1665,7 +2343,7 @@
       <c r="H25" s="7"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="7">
         <v>2</v>
       </c>
@@ -1678,7 +2356,7 @@
       <c r="H26" s="7"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="7">
         <v>3</v>
       </c>
@@ -1691,7 +2369,7 @@
       <c r="H27" s="7"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="7">
         <v>4</v>
       </c>
@@ -1704,7 +2382,7 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="7">
         <v>5</v>
       </c>
@@ -1717,7 +2395,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="7">
         <v>6</v>
       </c>
@@ -1730,7 +2408,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="7">
         <v>7</v>
       </c>
@@ -1743,7 +2421,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="7">
         <v>8</v>
       </c>
@@ -1756,7 +2434,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="7">
         <v>9</v>
       </c>
@@ -1788,275 +2466,257 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683A7741-F98B-49CC-BBBF-B194CB6D9A06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="5" width="15.875" customWidth="1"/>
+    <col min="1" max="5" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="46" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="29" t="s">
+      <c r="B5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="12"/>
       <c r="B6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="13"/>
       <c r="B7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="44"/>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="46"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="12"/>
       <c r="B14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="13"/>
       <c r="B15" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="33"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="12"/>
       <c r="B22" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="13"/>
       <c r="B23" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
+        <v>43</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
@@ -2066,6 +2726,24 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/요구사항정의서.xlsx
+++ b/design/요구사항정의서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2580" windowHeight="6470"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의서" sheetId="11" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="320">
   <si>
     <t>업무</t>
   </si>
@@ -74,9 +74,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>USER-009</t>
-  </si>
-  <si>
     <t>HOME-001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -85,10 +82,6 @@
   </si>
   <si>
     <t>HOME-003</t>
-  </si>
-  <si>
-    <t>로그인/아웃 버튼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>테이블명</t>
@@ -157,15 +150,9 @@
     <t>요구사항명</t>
   </si>
   <si>
-    <t>회원가입 버튼</t>
-  </si>
-  <si>
     <t>개요</t>
   </si>
   <si>
-    <t>회원가입 창으로 바로 이동할 수 있는 버튼 구성</t>
-  </si>
-  <si>
     <t>요구</t>
   </si>
   <si>
@@ -178,12 +165,6 @@
     <t>상세설명</t>
   </si>
   <si>
-    <t>버튼 클릭 시 회원가입 창으로 이동</t>
-  </si>
-  <si>
-    <t>현재 상태가 ‘로그아웃’일 경우에만 표시</t>
-  </si>
-  <si>
     <t>유형</t>
   </si>
   <si>
@@ -191,16 +172,6 @@
   </si>
   <si>
     <t>전제조건</t>
-  </si>
-  <si>
-    <t>로그인창 이동 / 로그아웃</t>
-  </si>
-  <si>
-    <t>게시글목록 이동</t>
-  </si>
-  <si>
-    <t>HOME-003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>강을원, 구병희, 권진솔, 서찬기, 서현진</t>
@@ -329,10 +300,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>워크스페이스 생성, 선택, 삭제, 초대 수락/거절</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>로그아웃</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -345,63 +312,916 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>워크스페이스 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크스페이스 이름 설정, 멤버 초대 요청(ID)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크스페이스 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신이 관리하는 워크스페이스 목록 선택 후 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 생성/수정/삭제 및 공지사항 내용 알림톡(생성/수정 시)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캘린더 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 추가/수정/삭제 및 일정내용 알림톡(생성/수정/삭제 시)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>칸반보드 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>칸반보드 생성/수정/삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 글 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 글 생성/수정/삭제(파일 업로드 및 다운로드)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메신저</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">개인채팅(본인, 알림봇 포함) 및 그룹채팅 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 업로드/다운로드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 진행 시 파일 업로드 및 다운로드 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타 구성원의 채팅 메시지에 대한 답글 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방 개설</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 워크스페이스 내의 특정 구성원 간의 그룹채팅 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 브라우저</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 워크스페이스 내 자신이 포함된 채팅방 및 게시판의 업로드 된 파일관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>온/오프라인 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부가서비스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 워크스페이스 내 타 구성원들의 로그인/로그아웃 상태 표시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORK-001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORK-002</t>
+  </si>
+  <si>
+    <t>WORK-003</t>
+  </si>
+  <si>
+    <t>WORK-004</t>
+  </si>
+  <si>
+    <t>SPACE-001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPACE-002</t>
+  </si>
+  <si>
+    <t>CHAT-001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAT-002</t>
+  </si>
+  <si>
+    <t>CHAT-003</t>
+  </si>
+  <si>
+    <t>CHAT-004</t>
+  </si>
+  <si>
+    <t>FILE-001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONOFF-001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_NO_SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMAIL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPACE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPACE_NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크스페이스 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPACE_NO_SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPACE_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크스페이스 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 워크스페이스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANAGER_NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 회원번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(MEMBER_NO)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPACE_MEMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPACE_MEMBER_NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스페이스 멤버 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPACE_MEMBER_NO_SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOM_NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOM_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 그룹 채팅방</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOM_NO_SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(SPACE_NO)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOM_MEMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOM_MEMBER_NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOM_MEMBER_NO_SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(ROOM_NO)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(SPACE_MEMBER_NO)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCHAT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCHAT_NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 채팅 내역 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCHAT_NO_SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILENAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드 파일 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPACE_MEMBER_RE_NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스페이스 멤버 답글 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방 멤버 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RE_CONTENT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글 메시지 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_AT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성 날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCHAT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCHAT_NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 채팅 내역 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCHAT_NO_SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSDATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AL_ROOM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AL_ROOM_NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AL_ROOM_NO_SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AL_CHAT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AL_CHAT_NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림채팅방 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알림룸 메시지 내역 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AL_CHAT_NO_SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(AL_ROOM_NO)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_CALLENDER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_CALLENDER_NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캘린더 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_CALLENDER_NO_SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(ROOM)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_CALLENDER_DETAIL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캘린더 상세정보 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC_DETAIL_NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FC_DETAIL_NO_SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(F_CALLENDER)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(SPACE_MEMBER)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUBJECT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 캘린더</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVENT_START_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVENT_END_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 시작 날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 종료 날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KANBAN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KANBAN_NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>칸반보드 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KANBAN_NO_SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(SPACE)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KANBAN_DETAIL_NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>칸반보드 상세정보 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KANBAN_DETAIL_NO_SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(KANBAN)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>칸반보드 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATUS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO_DO/PROGRESS/DONE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOARD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOARD_NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOARD_NO_SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOARD_DETAIL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOARD_DETAIL_NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOARD_DETAIL_NO_SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(BOARD)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 제목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BROWSER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BROWSER_NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 브라우저 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BROWSER_NO_SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BROWSER_DETAIL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BROWSER_DETAIL_NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>브라우저 상세정보 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BROWSER_DETAIL_NO_SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(BROWSER)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK(PCHAT/GCHAT/BOARD_DETAIL)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">로그인을 하면 워크스페이스 목록화면으로 이동 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 기억하기 체크 시 쿠키로 아이디 저장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 페이지로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디/비밀번호 찾기 페이지로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 정보 : 이름, 아이디/아이디 중복체크, 비밀번호/비밀번호   확인, 이메일 작성 및 가입기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>HOME-001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>계정 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOME-003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 정보 : 이름, 이메일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 분실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOME-004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 정보 : 아이디, 이메일 입력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 분실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOME-005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃 시 서버 측 로그인 세션이 삭제되고 메인화면으로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPACE-001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크스페이스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOME-002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면 안의 기능 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면(로그인)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크스페이스 메인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>워크스페이스 생성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>워크스페이스 이름 설정, 멤버 초대 요청(ID)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>워크스페이스 선택</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>멤버로 소속된 워크스페이스로 액세스할 목록 선택</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>워크스페이스 삭제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>워크스페이스 생성 페이지로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크스페이스 목록 표시 및 입장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크스페이스 초대 목록 표시 및 수락/거절</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPACE-002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크스페이스 생성 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크스페이스 이름 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기 멤버 초대 요청(ID)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPACE-003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>관리자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>자신이 관리하는 워크스페이스 목록 선택 후 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>워크스페이스 초대 수락/거절</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구성원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 관리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작업관리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 생성/수정/삭제 및 공지사항 내용 알림톡(생성/수정 시)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캘린더 관리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정 추가/수정/삭제 및 일정내용 알림톡(생성/수정/삭제 시)</t>
+    <t>워크스페이스 삭제 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 정보 : 관리자 계정 패스워드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신이 관리자로 있는 워크스페이스 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORK-001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 관리 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지글 생성/수정/삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 내용 알림톡(생성/수정 시)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORK-002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캘린더</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캘린더 관리 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 추가/수정/삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정내용 알림톡(생성/수정/삭제 시)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORK-003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>칸반보드</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -413,11 +1233,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>WORK-004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>게시판 글 관리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>게시판 글 생성/수정/삭제(파일 업로드 및 다운로드)</t>
+    <t>게시판 글 생성/수정/삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 업로드/다운로드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">게시글 내에 파일 업로드/다운로드 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAT-001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -425,23 +1265,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>채팅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">개인채팅(본인, 알림봇 포함) 및 그룹채팅 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일 업로드/다운로드</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>채팅 진행 시 파일 업로드 및 다운로드 기능</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>답글기능</t>
+    <t>채팅 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인채팅(본인, 알림봇 포함)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹채팅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAT-002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅방 내에 파일 업로드 및 다운로드 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAT-003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>답글 기능</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -449,11 +1297,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>CHAT-004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>채팅방 개설</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>해당 워크스페이스 내의 특정 구성원 간의 그룹채팅 기능</t>
+    <t>해당 워크스페이스 내의 특정 구성원 간의 그룹채팅 생성 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE-001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -465,19 +1321,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>해당 워크스페이스 내 자신이 포함된 채팅방 및 게시판의 업로드 된 파일관리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HOME-019</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초대받은 워크스페이스 초대 내용 수락/거절(수락/거절-&gt;워크홈으로)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HOME-006</t>
+    <t>ONOFF-001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부가서비스</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -485,61 +1333,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>부가서비스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 워크스페이스 내 타 구성원들의 로그인/로그아웃 상태 표시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WORK-001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WORK-002</t>
-  </si>
-  <si>
-    <t>WORK-003</t>
-  </si>
-  <si>
-    <t>WORK-004</t>
-  </si>
-  <si>
-    <t>SPACE-001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPACE-002</t>
-  </si>
-  <si>
-    <t>SPACE-003</t>
-  </si>
-  <si>
-    <t>SPACE-004</t>
-  </si>
-  <si>
-    <t>SPACE-005</t>
-  </si>
-  <si>
-    <t>CHAT-001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHAT-002</t>
-  </si>
-  <si>
-    <t>CHAT-003</t>
-  </si>
-  <si>
-    <t>CHAT-004</t>
-  </si>
-  <si>
-    <t>FILE-001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ONOFF-001</t>
+    <t>해당 워크스페이스 내 타 구성원들의 로그인/로그아웃 상태 표시 기능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 워크스페이스 내 자신이 포함된 채팅방 및 게시판의 업로드 된 파일 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요정보 : 초대할 구성원 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOME-002, HOME-003, HOME-004, SPACE-001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPACE-002, WORK-001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워크스페이스 생성, 선택, 초대 수락/거절</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOME-002, HOME-003,            HOME-004, SPACE-001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -547,7 +1365,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,8 +1431,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="함초롬바탕"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,8 +1472,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -913,13 +1752,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -971,6 +1969,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1078,6 +2085,120 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1419,11 +2540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1435,64 +2556,64 @@
     <col min="5" max="5" width="23.33203125" customWidth="1"/>
     <col min="6" max="6" width="27.08203125" customWidth="1"/>
     <col min="7" max="7" width="36.83203125" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.45">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="21" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="21" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="28"/>
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="29">
         <v>44474</v>
       </c>
-      <c r="H3" s="25"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -1508,424 +2629,432 @@
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="33.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="92" t="s">
+        <v>236</v>
+      </c>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="92" t="s">
+        <v>236</v>
+      </c>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G9" s="20"/>
+      <c r="H9" s="92" t="s">
+        <v>236</v>
+      </c>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="92" t="s">
+        <v>236</v>
+      </c>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="92" t="s">
+        <v>317</v>
+      </c>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="92" t="s">
+        <v>254</v>
+      </c>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+    </row>
+    <row r="13" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>109</v>
+        <v>269</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F14" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="92" t="s">
+        <v>294</v>
+      </c>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="92" t="s">
+        <v>294</v>
+      </c>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="17"/>
+        <v>66</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="20"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="92" t="s">
+        <v>307</v>
+      </c>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="92" t="s">
+        <v>307</v>
+      </c>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="17"/>
+        <v>75</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="20"/>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="17"/>
+        <v>80</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="20"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="17"/>
+        <v>82</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="20"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="26">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:H2"/>
@@ -1945,20 +3074,18 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B26:B1048576">
+  <conditionalFormatting sqref="B24:B1048576">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="N">
-      <formula>NOT(ISERROR(SEARCH("N",B26)))</formula>
+      <formula>NOT(ISERROR(SEARCH("N",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
@@ -1973,102 +3100,140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A106" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="7" width="10.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.08203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="A1" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="31"/>
       <c r="E1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+        <v>21</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="H2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="H3" s="7"/>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="B4" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="7">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="9"/>
+      <c r="I4" s="9" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="7">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="9"/>
@@ -2077,11 +3242,21 @@
       <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="7">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="9"/>
@@ -2090,374 +3265,2406 @@
       <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="7">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="9"/>
+      <c r="I7" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="9"/>
+      <c r="I11" s="9" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="7">
+        <v>40</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="I12" s="9"/>
     </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="27" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="7">
+        <v>3</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+    </row>
+    <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="8" t="s">
+      <c r="C16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-    </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="H16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="7">
-        <v>1</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="7">
-        <v>2</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="9"/>
+      <c r="I17" s="9" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="7">
-        <v>3</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="9"/>
+      <c r="I18" s="9" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="7">
-        <v>4</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="7">
-        <v>5</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="7">
-        <v>6</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="23" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="27" t="s">
+      <c r="I19" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+    </row>
+    <row r="22" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="8" t="s">
+      <c r="C22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-    </row>
-    <row r="24" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="G22" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="H22" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>27</v>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" s="7">
+        <v>1</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" s="7">
+        <v>2</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="7">
-        <v>1</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="7">
+        <v>20</v>
+      </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>134</v>
+      </c>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="7">
-        <v>2</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="7">
-        <v>3</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="7">
-        <v>4</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+    <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+    </row>
+    <row r="28" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="7">
-        <v>5</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="F29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="H29" s="7"/>
-      <c r="I29" s="9"/>
+      <c r="I29" s="9" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="7">
-        <v>6</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="F30" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="9"/>
+      <c r="I30" s="9" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="7">
-        <v>7</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="F31" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="7">
+      <c r="I31" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+    </row>
+    <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="7">
+        <v>1</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="7">
+        <v>2</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" s="7">
+        <v>3</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" s="7">
+        <v>4</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39" s="7">
+        <v>5</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="7">
+        <v>50</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" s="7">
+        <v>6</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" s="7">
+        <v>7</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42" s="7">
         <v>8</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="7">
-        <v>9</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="9"/>
+      <c r="B42" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I42" s="9"/>
+    </row>
+    <row r="44" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="30"/>
+      <c r="C44" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" s="31"/>
+      <c r="E44" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+    </row>
+    <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" s="7">
+        <v>1</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" s="7">
+        <v>2</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" s="7">
+        <v>3</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49" s="7">
+        <v>4</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50" s="7">
+        <v>5</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="7">
+        <v>50</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="9"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A51" s="7">
+        <v>6</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="9"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A52" s="7">
+        <v>7</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="9"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A53" s="7">
+        <v>8</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="55" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="30"/>
+      <c r="C55" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="31"/>
+      <c r="E55" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+    </row>
+    <row r="56" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A57" s="7">
+        <v>1</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H57" s="7"/>
+      <c r="I57" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A58" s="7">
+        <v>2</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A59" s="7">
+        <v>3</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="30"/>
+      <c r="C61" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" s="31"/>
+      <c r="E61" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+    </row>
+    <row r="62" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A63" s="7">
+        <v>1</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H63" s="7"/>
+      <c r="I63" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A64" s="7">
+        <v>2</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A65" s="7">
+        <v>3</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E65" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="9"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A66" s="7">
+        <v>4</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I66" s="7"/>
+    </row>
+    <row r="68" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="30"/>
+      <c r="C68" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D68" s="31"/>
+      <c r="E68" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+    </row>
+    <row r="69" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H69" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I69" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A70" s="7">
+        <v>1</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H70" s="7"/>
+      <c r="I70" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A71" s="7">
+        <v>2</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="30"/>
+      <c r="C73" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" s="31"/>
+      <c r="E73" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+    </row>
+    <row r="74" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I74" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A75" s="7">
+        <v>1</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H75" s="7"/>
+      <c r="I75" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A76" s="7">
+        <v>2</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A77" s="7">
+        <v>3</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A78" s="7">
+        <v>4</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E78" s="7">
+        <v>50</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I78" s="7"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A79" s="7">
+        <v>5</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="9"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A80" s="7">
+        <v>6</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="9"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A81" s="7">
+        <v>7</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E81" s="7">
+        <v>200</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="9"/>
+    </row>
+    <row r="83" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="30"/>
+      <c r="C83" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D83" s="31"/>
+      <c r="E83" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F83" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+    </row>
+    <row r="84" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H84" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A85" s="7">
+        <v>1</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H85" s="7"/>
+      <c r="I85" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A86" s="7">
+        <v>2</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" s="30"/>
+      <c r="C88" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D88" s="31"/>
+      <c r="E88" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+    </row>
+    <row r="89" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G89" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H89" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I89" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A90" s="7">
+        <v>1</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H90" s="7"/>
+      <c r="I90" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A91" s="7">
+        <v>2</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A92" s="7">
+        <v>3</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A93" s="7">
+        <v>4</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E93" s="7">
+        <v>60</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A94" s="7">
+        <v>5</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A95" s="7">
+        <v>6</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I95" s="9"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A96" s="7">
+        <v>7</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I96" s="9"/>
+    </row>
+    <row r="98" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A98" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" s="30"/>
+      <c r="C98" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D98" s="31"/>
+      <c r="E98" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F98" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G98" s="31"/>
+      <c r="H98" s="31"/>
+      <c r="I98" s="31"/>
+    </row>
+    <row r="99" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H99" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I99" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A100" s="7">
+        <v>1</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H100" s="7"/>
+      <c r="I100" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A101" s="7">
+        <v>2</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A103" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" s="30"/>
+      <c r="C103" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D103" s="31"/>
+      <c r="E103" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F103" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G103" s="31"/>
+      <c r="H103" s="31"/>
+      <c r="I103" s="31"/>
+    </row>
+    <row r="104" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F104" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H104" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I104" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A105" s="7">
+        <v>1</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H105" s="7"/>
+      <c r="I105" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A106" s="7">
+        <v>2</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A107" s="7">
+        <v>3</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A108" s="7">
+        <v>4</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E108" s="7">
+        <v>60</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A109" s="7">
+        <v>5</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E109" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="9"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A110" s="7">
+        <v>6</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E110" s="7">
+        <v>50</v>
+      </c>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="9"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A111" s="7">
+        <v>7</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I111" s="9"/>
+    </row>
+    <row r="113" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A113" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B113" s="30"/>
+      <c r="C113" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="D113" s="31"/>
+      <c r="E113" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F113" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G113" s="31"/>
+      <c r="H113" s="31"/>
+      <c r="I113" s="31"/>
+    </row>
+    <row r="114" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A114" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F114" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G114" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H114" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I114" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A115" s="7">
+        <v>1</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H115" s="7"/>
+      <c r="I115" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A116" s="7">
+        <v>2</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A118" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" s="30"/>
+      <c r="C118" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="D118" s="31"/>
+      <c r="E118" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F118" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G118" s="31"/>
+      <c r="H118" s="31"/>
+      <c r="I118" s="31"/>
+    </row>
+    <row r="119" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A119" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F119" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G119" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H119" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I119" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A120" s="7">
+        <v>1</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H120" s="7"/>
+      <c r="I120" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A121" s="7">
+        <v>2</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A122" s="7">
+        <v>3</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A123" s="7">
+        <v>4</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E123" s="7">
+        <v>50</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="19" t="s">
+        <v>228</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:I23"/>
+  <mergeCells count="51">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:I15"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="F98:I98"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="F118:I118"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="F113:I113"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2467,10 +5674,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:N140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="E143" sqref="A1:E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2479,271 +5686,1620 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+    </row>
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="B3" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="11"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="11"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="43" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="40" t="s">
+      <c r="B7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="12"/>
+      <c r="B8" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="72"/>
+      <c r="C11" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="54"/>
+      <c r="E12" s="71"/>
+    </row>
+    <row r="13" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
+      <c r="C13" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+    </row>
+    <row r="14" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="69"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
+      <c r="C15" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="12"/>
+      <c r="B16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
+      <c r="C16" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="12"/>
-      <c r="B6" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="43" t="s">
+      <c r="C17" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="47"/>
+      <c r="C19" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="E19" s="16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="43" t="s">
+      <c r="B21" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="39"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="11" t="s">
+      <c r="B22" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="11" t="s">
+      <c r="C22" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="45"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="12"/>
+      <c r="B23" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="11" t="s">
+      <c r="C23" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="12"/>
-      <c r="B14" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="43" t="s">
+      <c r="C24" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="47"/>
+      <c r="C26" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="E26" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="D27" s="44"/>
+      <c r="E27" s="45"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="B28" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29" s="44"/>
+      <c r="E29" s="45"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="12"/>
+      <c r="B30" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A33" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="47"/>
+      <c r="C33" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A34" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="60"/>
+      <c r="C34" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="44"/>
+      <c r="E34" s="45"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A35" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="D35" s="38"/>
+      <c r="E35" s="39"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A36" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="D36" s="44"/>
+      <c r="E36" s="45"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A37" s="12"/>
+      <c r="B37" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="D37" s="44"/>
+      <c r="E37" s="45"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A40" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="47"/>
+      <c r="C40" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A41" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="47"/>
+      <c r="C41" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="D41" s="44"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+    </row>
+    <row r="42" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="80" t="s">
+        <v>264</v>
+      </c>
+      <c r="D42" s="81"/>
+      <c r="E42" s="82"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A43" s="11"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="D43" s="78"/>
+      <c r="E43" s="79"/>
+    </row>
+    <row r="44" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="43" t="s">
+      <c r="B44" s="36"/>
+      <c r="C44" s="74" t="s">
+        <v>262</v>
+      </c>
+      <c r="D44" s="75"/>
+      <c r="E44" s="76"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A45" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="11" t="s">
+      <c r="B45" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="11" t="s">
+      <c r="C45" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="D45" s="44"/>
+      <c r="E45" s="45"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A46" s="12"/>
+      <c r="B46" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="11" t="s">
+      <c r="C46" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="D46" s="44"/>
+      <c r="E46" s="45"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="12"/>
-      <c r="B22" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
+      <c r="C47" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D47" s="33"/>
+      <c r="E47" s="34"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="47"/>
+      <c r="C49" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="47"/>
+      <c r="C50" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="D50" s="44"/>
+      <c r="E50" s="45"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="D51" s="38"/>
+      <c r="E51" s="39"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="36"/>
+      <c r="C52" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="D52" s="41"/>
+      <c r="E52" s="42"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="D53" s="44"/>
+      <c r="E53" s="45"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" s="12"/>
+      <c r="B54" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="D54" s="44"/>
+      <c r="E54" s="45"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" s="13"/>
+      <c r="B55" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D55" s="33"/>
+      <c r="E55" s="34"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="47"/>
+      <c r="C57" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="47"/>
+      <c r="C58" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="D58" s="44"/>
+      <c r="E58" s="45"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="D59" s="38"/>
+      <c r="E59" s="39"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="36"/>
+      <c r="C60" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="D60" s="41"/>
+      <c r="E60" s="42"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="D61" s="44"/>
+      <c r="E61" s="45"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" s="12"/>
+      <c r="B62" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="D62" s="44"/>
+      <c r="E62" s="45"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" s="13"/>
+      <c r="B63" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="32"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="34"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65" s="47"/>
+      <c r="C65" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="60"/>
+      <c r="C66" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="D66" s="44"/>
+      <c r="E66" s="45"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D67" s="38"/>
+      <c r="E67" s="39"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68" s="56"/>
+      <c r="B68" s="87"/>
+      <c r="C68" s="85" t="s">
+        <v>278</v>
+      </c>
+      <c r="D68" s="85"/>
+      <c r="E68" s="86"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="D69" s="44"/>
+      <c r="E69" s="45"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" s="12"/>
+      <c r="B70" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="D70" s="44"/>
+      <c r="E70" s="45"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" s="13"/>
+      <c r="B71" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" s="32"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="34"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="47"/>
+      <c r="C73" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" s="47"/>
+      <c r="C74" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="D74" s="44"/>
+      <c r="E74" s="45"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="D75" s="38"/>
+      <c r="E75" s="39"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="36"/>
+      <c r="C76" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="D76" s="41"/>
+      <c r="E76" s="42"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="D77" s="44"/>
+      <c r="E77" s="45"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78" s="12"/>
+      <c r="B78" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="D78" s="44"/>
+      <c r="E78" s="45"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79" s="13"/>
+      <c r="B79" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" s="32"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="34"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" s="47"/>
+      <c r="C81" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A82" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" s="60"/>
+      <c r="C82" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="D82" s="44"/>
+      <c r="E82" s="45"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A83" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="D83" s="38"/>
+      <c r="E83" s="39"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A84" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="D84" s="44"/>
+      <c r="E84" s="45"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A85" s="12"/>
+      <c r="B85" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" s="43"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="45"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A86" s="13"/>
+      <c r="B86" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="32"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="34"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A88" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B88" s="47"/>
+      <c r="C88" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D88" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A89" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" s="47"/>
+      <c r="C89" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="D89" s="44"/>
+      <c r="E89" s="45"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A90" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="D90" s="38"/>
+      <c r="E90" s="39"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A91" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91" s="36"/>
+      <c r="C91" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="D91" s="41"/>
+      <c r="E91" s="42"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A92" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="D92" s="44"/>
+      <c r="E92" s="45"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A93" s="12"/>
+      <c r="B93" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C93" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="D93" s="44"/>
+      <c r="E93" s="45"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A94" s="13"/>
+      <c r="B94" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94" s="32"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="34"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A96" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96" s="47"/>
+      <c r="C96" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A97" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97" s="47"/>
+      <c r="C97" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="D97" s="44"/>
+      <c r="E97" s="45"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A98" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="D98" s="38"/>
+      <c r="E98" s="39"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A99" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B99" s="36"/>
+      <c r="C99" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="D99" s="41"/>
+      <c r="E99" s="42"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A100" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C100" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="D100" s="44"/>
+      <c r="E100" s="45"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A101" s="12"/>
+      <c r="B101" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101" s="43"/>
+      <c r="D101" s="44"/>
+      <c r="E101" s="45"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A102" s="13"/>
+      <c r="B102" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" s="32"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="34"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A104" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104" s="47"/>
+      <c r="C104" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="D104" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A105" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B105" s="60"/>
+      <c r="C105" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D105" s="44"/>
+      <c r="E105" s="45"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A106" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B106" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C106" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="D106" s="38"/>
+      <c r="E106" s="39"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A107" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B107" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C107" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="D107" s="44"/>
+      <c r="E107" s="45"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A108" s="12"/>
+      <c r="B108" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C108" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="D108" s="44"/>
+      <c r="E108" s="45"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A109" s="13"/>
+      <c r="B109" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C109" s="32"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="34"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A111" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111" s="47"/>
+      <c r="C111" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A112" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B112" s="60"/>
+      <c r="C112" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="D112" s="44"/>
+      <c r="E112" s="45"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A113" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B113" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C113" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="D113" s="38"/>
+      <c r="E113" s="39"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A114" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B114" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="D114" s="44"/>
+      <c r="E114" s="45"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A115" s="12"/>
+      <c r="B115" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C115" s="43"/>
+      <c r="D115" s="44"/>
+      <c r="E115" s="45"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A116" s="13"/>
+      <c r="B116" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C116" s="32"/>
+      <c r="D116" s="33"/>
+      <c r="E116" s="34"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A118" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B118" s="47"/>
+      <c r="C118" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="D118" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A119" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B119" s="60"/>
+      <c r="C119" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="D119" s="38"/>
+      <c r="E119" s="39"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A120" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B120" s="88" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="D120" s="51"/>
+      <c r="E120" s="52"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A121" s="56"/>
+      <c r="B121" s="89"/>
+      <c r="C121" s="53" t="s">
+        <v>315</v>
+      </c>
+      <c r="D121" s="54"/>
+      <c r="E121" s="55"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A122" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B122" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C122" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="D122" s="41"/>
+      <c r="E122" s="42"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A123" s="12"/>
+      <c r="B123" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C123" s="43"/>
+      <c r="D123" s="44"/>
+      <c r="E123" s="45"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A124" s="13"/>
+      <c r="B124" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C124" s="32"/>
+      <c r="D124" s="33"/>
+      <c r="E124" s="34"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A126" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B126" s="47"/>
+      <c r="C126" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A127" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B127" s="47"/>
+      <c r="C127" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="D127" s="44"/>
+      <c r="E127" s="45"/>
+    </row>
+    <row r="128" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A128" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B128" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="D128" s="38"/>
+      <c r="E128" s="39"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A129" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B129" s="36"/>
+      <c r="C129" s="40"/>
+      <c r="D129" s="41"/>
+      <c r="E129" s="42"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A130" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C130" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="D130" s="44"/>
+      <c r="E130" s="45"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A131" s="12"/>
+      <c r="B131" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C131" s="43"/>
+      <c r="D131" s="44"/>
+      <c r="E131" s="45"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A132" s="13"/>
+      <c r="B132" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C132" s="32"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="34"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A134" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B134" s="47"/>
+      <c r="C134" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A135" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B135" s="47"/>
+      <c r="C135" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="D135" s="44"/>
+      <c r="E135" s="45"/>
+    </row>
+    <row r="136" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A136" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B136" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C136" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="D136" s="38"/>
+      <c r="E136" s="39"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A137" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B137" s="36"/>
+      <c r="C137" s="40"/>
+      <c r="D137" s="41"/>
+      <c r="E137" s="42"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A138" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C138" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="D138" s="44"/>
+      <c r="E138" s="45"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A139" s="12"/>
+      <c r="B139" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C139" s="43"/>
+      <c r="D139" s="44"/>
+      <c r="E139" s="45"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A140" s="13"/>
+      <c r="B140" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C140" s="32"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="151">
+    <mergeCell ref="C138:E138"/>
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:E135"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:E137"/>
+    <mergeCell ref="H37:N37"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C128:E129"/>
+    <mergeCell ref="C132:E132"/>
     <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C13:E14"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
     <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C24:E24"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/요구사항정의서.xlsx
+++ b/design/요구사항정의서.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2580" windowHeight="6470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2580" windowHeight="6470" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의서" sheetId="11" r:id="rId1"/>
-    <sheet name="테이블 정의" sheetId="8" r:id="rId2"/>
-    <sheet name="요구사항 명세서" sheetId="10" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId2"/>
+    <sheet name="테이블 정의" sheetId="8" r:id="rId3"/>
+    <sheet name="요구사항 명세서" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="342">
   <si>
     <t>업무</t>
   </si>
@@ -1360,12 +1361,100 @@
     <t>HOME-002, HOME-003,            HOME-004, SPACE-001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>권진솔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구병희</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강을원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서찬기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서현진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_AT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE_AT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제거날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVITE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INVITE_NO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초대번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN_TIME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OUT_TIME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>톡방 입장시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>톡방 퇴장시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPLOAD_TIME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업로드 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1446,6 +1535,15 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1479,7 +1577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1911,13 +2009,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1978,6 +2113,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2014,6 +2197,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2023,49 +2239,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2080,125 +2317,65 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2542,9 +2719,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2560,58 +2737,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="28"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="28"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="45">
         <v>44474</v>
       </c>
-      <c r="H3" s="28"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
@@ -2629,16 +2806,18 @@
       <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="22"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="33.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
+      <c r="A6" s="32" t="s">
+        <v>322</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
@@ -2651,18 +2830,18 @@
       <c r="E6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="91" t="s">
+      <c r="G6" s="36"/>
+      <c r="H6" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2675,18 +2854,18 @@
       <c r="E7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="92" t="s">
+      <c r="G7" s="36"/>
+      <c r="H7" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
@@ -2699,18 +2878,18 @@
       <c r="E8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="92" t="s">
+      <c r="G8" s="36"/>
+      <c r="H8" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="4"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="4" t="s">
         <v>40</v>
       </c>
@@ -2723,18 +2902,18 @@
       <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="92" t="s">
+      <c r="G9" s="36"/>
+      <c r="H9" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="4"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="4" t="s">
         <v>41</v>
       </c>
@@ -2747,18 +2926,20 @@
       <c r="E10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="92" t="s">
+      <c r="G10" s="36"/>
+      <c r="H10" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
+      <c r="A11" s="32" t="s">
+        <v>323</v>
+      </c>
       <c r="B11" s="4" t="s">
         <v>89</v>
       </c>
@@ -2771,18 +2952,18 @@
       <c r="E11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="36" t="s">
         <v>318</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="92" t="s">
+      <c r="G11" s="36"/>
+      <c r="H11" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="4"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="4" t="s">
         <v>90</v>
       </c>
@@ -2795,18 +2976,18 @@
       <c r="E12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="92" t="s">
+      <c r="G12" s="36"/>
+      <c r="H12" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="4"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="4" t="s">
         <v>269</v>
       </c>
@@ -2819,18 +3000,20 @@
       <c r="E13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="93" t="s">
+      <c r="G13" s="36"/>
+      <c r="H13" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="4"/>
+      <c r="A14" s="32" t="s">
+        <v>320</v>
+      </c>
       <c r="B14" s="4" t="s">
         <v>85</v>
       </c>
@@ -2843,18 +3026,18 @@
       <c r="E14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="92" t="s">
+      <c r="G14" s="36"/>
+      <c r="H14" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="4"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="4" t="s">
         <v>86</v>
       </c>
@@ -2867,18 +3050,18 @@
       <c r="E15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="92" t="s">
+      <c r="G15" s="36"/>
+      <c r="H15" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="4"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="4" t="s">
         <v>87</v>
       </c>
@@ -2891,16 +3074,16 @@
       <c r="E16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="36"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="4"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="4" t="s">
         <v>88</v>
       </c>
@@ -2913,18 +3096,20 @@
       <c r="E17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="92" t="s">
+      <c r="G17" s="36"/>
+      <c r="H17" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="4"/>
+      <c r="A18" s="32" t="s">
+        <v>321</v>
+      </c>
       <c r="B18" s="4" t="s">
         <v>91</v>
       </c>
@@ -2937,16 +3122,16 @@
       <c r="E18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="4"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="4" t="s">
         <v>92</v>
       </c>
@@ -2959,18 +3144,18 @@
       <c r="E19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="92" t="s">
+      <c r="G19" s="36"/>
+      <c r="H19" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="4"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="4" t="s">
         <v>93</v>
       </c>
@@ -2983,16 +3168,16 @@
       <c r="E20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="20"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="4"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="4" t="s">
         <v>94</v>
       </c>
@@ -3005,16 +3190,18 @@
       <c r="E21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="20"/>
+      <c r="G21" s="36"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="4"/>
+      <c r="A22" s="35" t="s">
+        <v>324</v>
+      </c>
       <c r="B22" s="4" t="s">
         <v>95</v>
       </c>
@@ -3027,14 +3214,14 @@
       <c r="E22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="G22" s="20"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="4"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="4" t="s">
         <v>96</v>
       </c>
@@ -3047,14 +3234,14 @@
       <c r="E23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="20"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="31">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:H2"/>
@@ -3081,6 +3268,11 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A6:A10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B24:B1048576">
@@ -3100,10 +3292,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G127" sqref="G127"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3118,23 +3323,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="31"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
@@ -3286,111 +3491,103 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="30" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31" t="s">
+      <c r="B11" s="46"/>
+      <c r="C11" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="8" t="s">
+      <c r="D11" s="47"/>
+      <c r="E11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F11" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-    </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="8" t="s">
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+    </row>
+    <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I12" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="7">
-        <v>1</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="7">
-        <v>2</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="7">
-        <v>40</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>101</v>
@@ -3399,117 +3596,117 @@
       <c r="F13" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="7">
+        <v>2</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="7">
+        <v>40</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="7">
+        <v>3</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="30" t="s">
+    <row r="17" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31" t="s">
+      <c r="B17" s="46"/>
+      <c r="C17" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="8" t="s">
+      <c r="D17" s="47"/>
+      <c r="E17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F17" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-    </row>
-    <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="8" t="s">
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+    </row>
+    <row r="18" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I18" s="8" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="7">
-        <v>1</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="7">
-        <v>2</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>101</v>
@@ -3518,236 +3715,245 @@
       <c r="F19" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="H19" s="7"/>
       <c r="I19" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="7">
+        <v>2</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="7">
+        <v>3</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="30" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="100"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="17" t="s">
+      <c r="B23" s="46"/>
+      <c r="C23" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="D23" s="47"/>
+      <c r="E23" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F23" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-    </row>
-    <row r="22" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="17" t="s">
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+    </row>
+    <row r="24" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B24" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C24" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D24" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E24" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F24" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G24" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H24" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I24" s="30" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="7">
-        <v>1</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="7">
-        <v>2</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="9" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="7">
+        <v>1</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="7">
+        <v>2</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" s="7">
         <v>3</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="B27" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="105"/>
+      <c r="C29" s="101" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="103"/>
+      <c r="E29" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="103"/>
+    </row>
+    <row r="30" spans="1:9" s="31" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-    </row>
-    <row r="28" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="17" t="s">
+      <c r="E30" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F30" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G30" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="H30" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="17" t="s">
+      <c r="I30" s="30" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="7">
-        <v>1</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="7">
-        <v>2</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="9" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>101</v>
@@ -3756,117 +3962,117 @@
       <c r="F31" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="H31" s="7"/>
       <c r="I31" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" s="7">
+        <v>2</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" s="7">
+        <v>3</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="7">
+        <v>20</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="35" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="17" t="s">
+      <c r="B35" s="46"/>
+      <c r="C35" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="47"/>
+      <c r="E35" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="31" t="s">
+      <c r="F35" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-    </row>
-    <row r="34" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="17" t="s">
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+    </row>
+    <row r="36" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B36" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C36" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D36" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E36" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F36" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G36" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="17" t="s">
+      <c r="H36" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I34" s="17" t="s">
+      <c r="I36" s="17" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="7">
-        <v>1</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="7">
-        <v>2</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="9" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>101</v>
@@ -3875,66 +4081,72 @@
       <c r="F37" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G37" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="H37" s="7"/>
       <c r="I37" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="7">
-        <v>3000</v>
-      </c>
-      <c r="F38" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+      <c r="I38" s="9" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" s="7">
-        <v>50</v>
-      </c>
-      <c r="F39" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
-      <c r="I39" s="9"/>
+      <c r="I39" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>150</v>
+        <v>336</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>151</v>
+        <v>338</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>101</v>
+        <v>329</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -3944,103 +4156,108 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="7">
-        <v>7</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="7">
-        <v>3000</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="E41" s="19"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="9"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="7">
-        <v>8</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="I42" s="9"/>
+      <c r="B42" s="106"/>
+    </row>
+    <row r="43" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="46"/>
+      <c r="C43" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="47"/>
+      <c r="E43" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
     </row>
     <row r="44" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="D44" s="31"/>
+      <c r="A44" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="E44" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-    </row>
-    <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F44" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G44" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="17" t="s">
+      <c r="H44" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I45" s="17" t="s">
+      <c r="I44" s="17" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" s="7">
+        <v>1</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>101</v>
@@ -4049,23 +4266,21 @@
       <c r="F46" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="G46" s="7"/>
       <c r="H46" s="7"/>
       <c r="I46" s="9" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>101</v>
@@ -4077,69 +4292,65 @@
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E48" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="9" t="s">
-        <v>141</v>
-      </c>
+      <c r="I48" s="7"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E49" s="7">
-        <v>3000</v>
+        <v>50</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
+      <c r="I49" s="9"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="7">
-        <v>50</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
@@ -4147,18 +4358,20 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E51" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="E51" s="7">
+        <v>3000</v>
+      </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -4166,101 +4379,107 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
+      <c r="H52" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A53" s="7">
-        <v>8</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="I53" s="9"/>
+    <row r="54" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="46"/>
+      <c r="C54" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="47"/>
+      <c r="E54" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
     </row>
     <row r="55" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="D55" s="31"/>
+      <c r="A55" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>20</v>
+      </c>
       <c r="E55" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F55" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-    </row>
-    <row r="56" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="17" t="s">
+      <c r="F55" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G56" s="17" t="s">
+      <c r="G55" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H56" s="17" t="s">
+      <c r="H55" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I56" s="17" t="s">
+      <c r="I55" s="17" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A56" s="7">
+        <v>1</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H56" s="7"/>
+      <c r="I56" s="9" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>101</v>
@@ -4269,23 +4488,21 @@
       <c r="F57" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G57" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="9" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>101</v>
@@ -4297,286 +4514,288 @@
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="9" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E59" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
-      <c r="I59" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F61" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-    </row>
-    <row r="62" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H62" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I62" s="17" t="s">
-        <v>25</v>
-      </c>
+      <c r="I59" s="7"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A60" s="7">
+        <v>5</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="7">
+        <v>50</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="9"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A61" s="7">
+        <v>6</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="9"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A62" s="7">
+        <v>7</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="9"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="7">
+        <v>8</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I63" s="9"/>
+    </row>
+    <row r="65" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="46"/>
+      <c r="C65" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="D65" s="47"/>
+      <c r="E65" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+    </row>
+    <row r="66" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I66" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A67" s="7">
         <v>1</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D63" s="9" t="s">
+      <c r="B67" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D67" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7" t="s">
+      <c r="E67" s="7"/>
+      <c r="F67" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G67" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H63" s="7"/>
-      <c r="I63" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64" s="7">
+      <c r="H67" s="7"/>
+      <c r="I67" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A68" s="7">
         <v>2</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="D64" s="9" t="s">
+      <c r="B68" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7" t="s">
+      <c r="E68" s="7"/>
+      <c r="F68" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A65" s="7">
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A69" s="7">
         <v>3</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E65" s="7">
-        <v>1000</v>
-      </c>
-      <c r="F65" s="7" t="s">
+      <c r="B69" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="9"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A66" s="7">
-        <v>4</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="I66" s="7"/>
-    </row>
-    <row r="68" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B68" s="30"/>
-      <c r="C68" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="D68" s="31"/>
-      <c r="E68" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F68" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-    </row>
-    <row r="69" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F69" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H69" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I69" s="17" t="s">
-        <v>25</v>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="9" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>173</v>
+        <v>336</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>174</v>
+        <v>338</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>101</v>
+        <v>329</v>
       </c>
       <c r="E70" s="7"/>
-      <c r="F70" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
       <c r="H70" s="7"/>
-      <c r="I70" s="9" t="s">
-        <v>175</v>
-      </c>
+      <c r="I70" s="9"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>116</v>
+        <v>337</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>117</v>
+        <v>339</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>101</v>
+        <v>329</v>
       </c>
       <c r="E71" s="7"/>
-      <c r="F71" s="7" t="s">
-        <v>102</v>
-      </c>
+      <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
-      <c r="I71" s="9" t="s">
-        <v>176</v>
-      </c>
+      <c r="I71" s="9"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B72" s="107"/>
     </row>
     <row r="73" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="30"/>
-      <c r="C73" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="D73" s="31"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="D73" s="47"/>
       <c r="E73" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F73" s="31" t="s">
+      <c r="F73" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
     </row>
     <row r="74" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="17" t="s">
@@ -4612,10 +4831,10 @@
         <v>1</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>101</v>
@@ -4629,7 +4848,7 @@
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="9" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
@@ -4637,10 +4856,10 @@
         <v>2</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>101</v>
@@ -4652,7 +4871,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
       <c r="I76" s="9" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
@@ -4660,293 +4879,295 @@
         <v>3</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E77" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="E77" s="7">
+        <v>1000</v>
+      </c>
       <c r="F77" s="7" t="s">
         <v>102</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
-      <c r="I77" s="9" t="s">
-        <v>182</v>
-      </c>
+      <c r="I77" s="9"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="7">
         <v>4</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E78" s="7">
-        <v>50</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="I78" s="7"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="7">
-        <v>5</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7" t="s">
+    <row r="80" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" s="46"/>
+      <c r="C80" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="D80" s="47"/>
+      <c r="E80" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="G80" s="47"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="47"/>
+    </row>
+    <row r="81" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H81" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A82" s="7">
+        <v>1</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="9"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80" s="7">
-        <v>6</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7" t="s">
+      <c r="G82" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H82" s="7"/>
+      <c r="I82" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A83" s="7">
+        <v>2</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="9"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A81" s="7">
-        <v>7</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E81" s="7">
-        <v>200</v>
-      </c>
-      <c r="F81" s="7" t="s">
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="46"/>
+      <c r="C85" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="D85" s="47"/>
+      <c r="E85" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F85" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="G85" s="47"/>
+      <c r="H85" s="47"/>
+      <c r="I85" s="47"/>
+    </row>
+    <row r="86" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I86" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A87" s="7">
+        <v>1</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="9"/>
-    </row>
-    <row r="83" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B83" s="30"/>
-      <c r="C83" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F83" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-    </row>
-    <row r="84" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E84" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F84" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H84" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I84" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A85" s="7">
-        <v>1</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D85" s="9" t="s">
+      <c r="G87" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H87" s="7"/>
+      <c r="I87" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A88" s="7">
+        <v>2</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D88" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7" t="s">
+      <c r="E88" s="7"/>
+      <c r="F88" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G85" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H85" s="7"/>
-      <c r="I85" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A86" s="7">
-        <v>2</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D86" s="9" t="s">
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A89" s="7">
+        <v>3</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D89" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7" t="s">
+      <c r="E89" s="7"/>
+      <c r="F89" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B88" s="30"/>
-      <c r="C88" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F88" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-    </row>
-    <row r="89" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B89" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E89" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F89" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G89" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H89" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I89" s="17" t="s">
-        <v>25</v>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="9" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H90" s="7"/>
-      <c r="I90" s="9" t="s">
-        <v>198</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E90" s="7">
+        <v>50</v>
+      </c>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="I90" s="7"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="E91" s="7"/>
       <c r="F91" s="7" t="s">
@@ -4954,22 +5175,20 @@
       </c>
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
-      <c r="I91" s="9" t="s">
-        <v>199</v>
-      </c>
+      <c r="I91" s="9"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7" t="s">
@@ -4977,279 +5196,281 @@
       </c>
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
-      <c r="I92" s="9" t="s">
-        <v>182</v>
-      </c>
+      <c r="I92" s="9"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>146</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E93" s="7">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>102</v>
       </c>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A94" s="7">
-        <v>5</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7" t="s">
+      <c r="I93" s="9"/>
+    </row>
+    <row r="95" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" s="46"/>
+      <c r="C95" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="D95" s="47"/>
+      <c r="E95" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="G95" s="47"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="47"/>
+    </row>
+    <row r="96" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H96" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I96" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A97" s="7">
+        <v>1</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A95" s="7">
-        <v>6</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="I95" s="9"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A96" s="7">
-        <v>7</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="I96" s="9"/>
-    </row>
-    <row r="98" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="30" t="s">
+      <c r="G97" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H97" s="7"/>
+      <c r="I97" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A98" s="7">
+        <v>2</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B98" s="30"/>
-      <c r="C98" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="D98" s="31"/>
-      <c r="E98" s="17" t="s">
+      <c r="B100" s="46"/>
+      <c r="C100" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="D100" s="47"/>
+      <c r="E100" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F98" s="31" t="s">
+      <c r="F100" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="G98" s="31"/>
-      <c r="H98" s="31"/>
-      <c r="I98" s="31"/>
-    </row>
-    <row r="99" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="17" t="s">
+      <c r="G100" s="47"/>
+      <c r="H100" s="47"/>
+      <c r="I100" s="47"/>
+    </row>
+    <row r="101" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B99" s="17" t="s">
+      <c r="B101" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="17" t="s">
+      <c r="C101" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D99" s="17" t="s">
+      <c r="D101" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E99" s="17" t="s">
+      <c r="E101" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F99" s="17" t="s">
+      <c r="F101" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G99" s="17" t="s">
+      <c r="G101" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H99" s="17" t="s">
+      <c r="H101" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I99" s="17" t="s">
+      <c r="I101" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A100" s="7">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A102" s="7">
         <v>1</v>
       </c>
-      <c r="B100" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="D100" s="9" t="s">
+      <c r="B102" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7" t="s">
+      <c r="E102" s="7"/>
+      <c r="F102" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G100" s="7" t="s">
+      <c r="G102" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H100" s="7"/>
-      <c r="I100" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A101" s="7">
+      <c r="H102" s="7"/>
+      <c r="I102" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A103" s="7">
         <v>2</v>
       </c>
-      <c r="B101" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D101" s="9" t="s">
+      <c r="B103" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7" t="s">
+      <c r="E103" s="7"/>
+      <c r="F103" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B103" s="30"/>
-      <c r="C103" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D103" s="31"/>
-      <c r="E103" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F103" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="G103" s="31"/>
-      <c r="H103" s="31"/>
-      <c r="I103" s="31"/>
-    </row>
-    <row r="104" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E104" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F104" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G104" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H104" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I104" s="17" t="s">
-        <v>25</v>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A104" s="7">
+        <v>3</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="9" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E105" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="E105" s="7">
+        <v>60</v>
+      </c>
       <c r="F105" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G105" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="G105" s="7"/>
       <c r="H105" s="7"/>
-      <c r="I105" s="9" t="s">
-        <v>213</v>
-      </c>
+      <c r="I105" s="7"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E106" s="7"/>
       <c r="F106" s="7" t="s">
@@ -5258,413 +5479,673 @@
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
       <c r="I106" s="9" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="E107" s="7"/>
-      <c r="F107" s="7" t="s">
-        <v>102</v>
-      </c>
+      <c r="F107" s="7"/>
       <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="9" t="s">
-        <v>182</v>
-      </c>
+      <c r="H107" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I107" s="9"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E108" s="7">
-        <v>60</v>
-      </c>
-      <c r="F108" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I108" s="9"/>
+    </row>
+    <row r="110" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A110" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B110" s="46"/>
+      <c r="C110" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="D110" s="47"/>
+      <c r="E110" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F110" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="G110" s="47"/>
+      <c r="H110" s="47"/>
+      <c r="I110" s="47"/>
+    </row>
+    <row r="111" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G111" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H111" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I111" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A112" s="7">
+        <v>1</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A109" s="7">
-        <v>5</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E109" s="7">
-        <v>3000</v>
-      </c>
-      <c r="F109" s="7" t="s">
+      <c r="G112" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H112" s="7"/>
+      <c r="I112" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A113" s="7">
+        <v>2</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="9"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A110" s="7">
-        <v>6</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E110" s="7">
-        <v>50</v>
-      </c>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="9"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A111" s="7">
-        <v>7</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="I111" s="9"/>
-    </row>
-    <row r="113" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A113" s="30" t="s">
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A115" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B113" s="30"/>
-      <c r="C113" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="D113" s="31"/>
-      <c r="E113" s="17" t="s">
+      <c r="B115" s="46"/>
+      <c r="C115" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="D115" s="47"/>
+      <c r="E115" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F113" s="31" t="s">
+      <c r="F115" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="G113" s="31"/>
-      <c r="H113" s="31"/>
-      <c r="I113" s="31"/>
-    </row>
-    <row r="114" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A114" s="17" t="s">
+      <c r="G115" s="47"/>
+      <c r="H115" s="47"/>
+      <c r="I115" s="47"/>
+    </row>
+    <row r="116" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A116" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B114" s="17" t="s">
+      <c r="B116" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C114" s="17" t="s">
+      <c r="C116" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D114" s="17" t="s">
+      <c r="D116" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E114" s="17" t="s">
+      <c r="E116" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F114" s="17" t="s">
+      <c r="F116" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G114" s="17" t="s">
+      <c r="G116" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H114" s="17" t="s">
+      <c r="H116" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I114" s="17" t="s">
+      <c r="I116" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A115" s="7">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A117" s="7">
         <v>1</v>
       </c>
-      <c r="B115" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="D115" s="9" t="s">
+      <c r="B117" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D117" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7" t="s">
+      <c r="E117" s="7"/>
+      <c r="F117" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G115" s="7" t="s">
+      <c r="G117" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H115" s="7"/>
-      <c r="I115" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A116" s="7">
+      <c r="H117" s="7"/>
+      <c r="I117" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A118" s="7">
         <v>2</v>
       </c>
-      <c r="B116" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D116" s="9" t="s">
+      <c r="B118" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D118" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7" t="s">
+      <c r="E118" s="7"/>
+      <c r="F118" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A118" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B118" s="30"/>
-      <c r="C118" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="D118" s="31"/>
-      <c r="E118" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F118" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="G118" s="31"/>
-      <c r="H118" s="31"/>
-      <c r="I118" s="31"/>
-    </row>
-    <row r="119" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A119" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B119" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D119" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E119" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F119" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G119" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H119" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I119" s="17" t="s">
-        <v>25</v>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A119" s="7">
+        <v>3</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="9" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A120" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E120" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="E120" s="7">
+        <v>60</v>
+      </c>
       <c r="F120" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G120" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="G120" s="7"/>
       <c r="H120" s="7"/>
-      <c r="I120" s="9" t="s">
-        <v>226</v>
-      </c>
+      <c r="I120" s="7"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A121" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>220</v>
+        <v>146</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E121" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="E121" s="7">
+        <v>3000</v>
+      </c>
       <c r="F121" s="7" t="s">
         <v>102</v>
       </c>
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
-      <c r="I121" s="9" t="s">
-        <v>227</v>
-      </c>
+      <c r="I121" s="9"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A122" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E122" s="7">
+        <v>50</v>
+      </c>
+      <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
-      <c r="I122" s="9" t="s">
-        <v>182</v>
-      </c>
+      <c r="I122" s="9"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A123" s="7">
+        <v>7</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I123" s="9"/>
+    </row>
+    <row r="125" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A125" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B125" s="46"/>
+      <c r="C125" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="D125" s="47"/>
+      <c r="E125" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F125" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="G125" s="47"/>
+      <c r="H125" s="47"/>
+      <c r="I125" s="47"/>
+    </row>
+    <row r="126" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A126" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B126" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E126" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F126" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G126" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H126" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I126" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A127" s="7">
+        <v>1</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H127" s="7"/>
+      <c r="I127" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A128" s="7">
+        <v>2</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A130" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B130" s="46"/>
+      <c r="C130" s="47" t="s">
+        <v>223</v>
+      </c>
+      <c r="D130" s="47"/>
+      <c r="E130" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F130" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="G130" s="47"/>
+      <c r="H130" s="47"/>
+      <c r="I130" s="47"/>
+    </row>
+    <row r="131" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A131" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B131" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E131" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F131" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G131" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H131" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I131" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A132" s="7">
+        <v>1</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H132" s="7"/>
+      <c r="I132" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A133" s="7">
+        <v>2</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A134" s="7">
+        <v>3</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A135" s="7">
         <v>4</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B135" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="C135" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D123" s="9" t="s">
+      <c r="D135" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E123" s="7">
+      <c r="E135" s="7">
         <v>50</v>
       </c>
-      <c r="F123" s="7" t="s">
+      <c r="F135" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="19" t="s">
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="19" t="s">
         <v>228</v>
       </c>
     </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A136" s="7">
+        <v>5</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:I15"/>
+  <mergeCells count="54">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:I17"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="F65:I65"/>
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="F73:I73"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="F83:I83"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="F118:I118"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="F80:I80"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="F95:I95"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="F115:I115"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="F125:I125"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5672,7 +6153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N140"/>
   <sheetViews>
@@ -5686,10 +6167,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="54"/>
       <c r="C1" s="16" t="s">
         <v>28</v>
       </c>
@@ -5701,57 +6182,57 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="11"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="11"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="59" t="s">
+      <c r="B6" s="65"/>
+      <c r="C6" s="66" t="s">
         <v>233</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="11" t="s">
@@ -5760,44 +6241,44 @@
       <c r="B7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="12"/>
       <c r="B8" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="13"/>
       <c r="B9" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="72"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="4" t="s">
         <v>256</v>
       </c>
@@ -5809,37 +6290,37 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="70" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="68" t="s">
         <v>234</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="71"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
     </row>
     <row r="13" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="84" t="s">
         <v>235</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
     </row>
     <row r="14" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="88"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
@@ -5848,39 +6329,39 @@
       <c r="B15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="75"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="12"/>
       <c r="B16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="45"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="13"/>
       <c r="B17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="59" t="s">
         <v>237</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="61"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="47"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="16" t="s">
         <v>239</v>
       </c>
@@ -5892,69 +6373,69 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="43" t="s">
+      <c r="B20" s="55"/>
+      <c r="C20" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="12"/>
       <c r="B23" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="13"/>
       <c r="B24" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="47"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="16" t="s">
         <v>245</v>
       </c>
@@ -5966,69 +6447,69 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="43" t="s">
+      <c r="B27" s="55"/>
+      <c r="C27" s="52" t="s">
         <v>247</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="45"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="51"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="44" t="s">
+      <c r="C29" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="45"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="51"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="12"/>
       <c r="B30" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="45"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="51"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="13"/>
       <c r="B31" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="59" t="s">
         <v>249</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="61"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="47"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="16" t="s">
         <v>250</v>
       </c>
@@ -6040,76 +6521,76 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="43" t="s">
+      <c r="B34" s="55"/>
+      <c r="C34" s="52" t="s">
         <v>252</v>
       </c>
-      <c r="D34" s="44"/>
-      <c r="E34" s="45"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="51"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="39"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="49"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="45"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="51"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37" s="12"/>
       <c r="B37" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="45"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="73"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="51"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="97"/>
+      <c r="L37" s="97"/>
+      <c r="M37" s="97"/>
+      <c r="N37" s="97"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" s="13"/>
       <c r="B38" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="34"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="61"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="47"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="16" t="s">
         <v>254</v>
       </c>
@@ -6121,24 +6602,24 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="43" t="s">
+      <c r="B41" s="54"/>
+      <c r="C41" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="D41" s="44"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="77" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="80" t="s">
@@ -6149,23 +6630,23 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" s="11"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="77" t="s">
+      <c r="B43" s="78"/>
+      <c r="C43" s="89" t="s">
         <v>263</v>
       </c>
-      <c r="D43" s="78"/>
-      <c r="E43" s="79"/>
+      <c r="D43" s="90"/>
+      <c r="E43" s="91"/>
     </row>
     <row r="44" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="74" t="s">
+      <c r="B44" s="79"/>
+      <c r="C44" s="92" t="s">
         <v>262</v>
       </c>
-      <c r="D44" s="75"/>
-      <c r="E44" s="76"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="94"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45" s="11" t="s">
@@ -6174,39 +6655,39 @@
       <c r="B45" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="D45" s="44"/>
-      <c r="E45" s="45"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="51"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46" s="12"/>
       <c r="B46" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="43" t="s">
+      <c r="C46" s="52" t="s">
         <v>317</v>
       </c>
-      <c r="D46" s="44"/>
-      <c r="E46" s="45"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="51"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47" s="13"/>
       <c r="B47" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="34"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="61"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" s="46" t="s">
+      <c r="A49" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="47"/>
+      <c r="B49" s="54"/>
       <c r="C49" s="16" t="s">
         <v>265</v>
       </c>
@@ -6218,39 +6699,39 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="46" t="s">
+      <c r="A50" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="47"/>
-      <c r="C50" s="43" t="s">
+      <c r="B50" s="54"/>
+      <c r="C50" s="52" t="s">
         <v>266</v>
       </c>
-      <c r="D50" s="44"/>
-      <c r="E50" s="45"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="51"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="D51" s="38"/>
-      <c r="E51" s="39"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="49"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="40" t="s">
+      <c r="B52" s="79"/>
+      <c r="C52" s="56" t="s">
         <v>268</v>
       </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="42"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="58"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="11" t="s">
@@ -6259,39 +6740,39 @@
       <c r="B53" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="43" t="s">
+      <c r="C53" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="D53" s="44"/>
-      <c r="E53" s="45"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="51"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="12"/>
       <c r="B54" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="43" t="s">
+      <c r="C54" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="D54" s="44"/>
-      <c r="E54" s="45"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="51"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="13"/>
       <c r="B55" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="D55" s="33"/>
-      <c r="E55" s="34"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="61"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57" s="46" t="s">
+      <c r="A57" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="47"/>
+      <c r="B57" s="54"/>
       <c r="C57" s="16" t="s">
         <v>269</v>
       </c>
@@ -6303,39 +6784,39 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="46" t="s">
+      <c r="A58" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="47"/>
-      <c r="C58" s="43" t="s">
+      <c r="B58" s="54"/>
+      <c r="C58" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="D58" s="44"/>
-      <c r="E58" s="45"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="51"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="37" t="s">
+      <c r="C59" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="D59" s="38"/>
-      <c r="E59" s="39"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="49"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="40" t="s">
+      <c r="B60" s="79"/>
+      <c r="C60" s="56" t="s">
         <v>272</v>
       </c>
-      <c r="D60" s="41"/>
-      <c r="E60" s="42"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="58"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="11" t="s">
@@ -6344,37 +6825,37 @@
       <c r="B61" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="43" t="s">
+      <c r="C61" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="D61" s="44"/>
-      <c r="E61" s="45"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="51"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="12"/>
       <c r="B62" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="43" t="s">
+      <c r="C62" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="D62" s="44"/>
-      <c r="E62" s="45"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="51"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="13"/>
       <c r="B63" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C63" s="32"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="34"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="61"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A65" s="46" t="s">
+      <c r="A65" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B65" s="47"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="16" t="s">
         <v>274</v>
       </c>
@@ -6386,76 +6867,76 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A66" s="46" t="s">
+      <c r="A66" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="60"/>
-      <c r="C66" s="43" t="s">
+      <c r="B66" s="55"/>
+      <c r="C66" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="D66" s="44"/>
-      <c r="E66" s="45"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="51"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A67" s="56" t="s">
+      <c r="A67" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="87" t="s">
+      <c r="B67" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="38" t="s">
+      <c r="C67" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="D67" s="38"/>
-      <c r="E67" s="39"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="49"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A68" s="56"/>
-      <c r="B68" s="87"/>
-      <c r="C68" s="85" t="s">
+      <c r="A68" s="20"/>
+      <c r="B68" s="83"/>
+      <c r="C68" s="98" t="s">
         <v>278</v>
       </c>
-      <c r="D68" s="85"/>
-      <c r="E68" s="86"/>
+      <c r="D68" s="98"/>
+      <c r="E68" s="99"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A69" s="56" t="s">
+      <c r="A69" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B69" s="61" t="s">
+      <c r="B69" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="44" t="s">
+      <c r="C69" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="D69" s="44"/>
-      <c r="E69" s="45"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="51"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" s="12"/>
       <c r="B70" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="43" t="s">
+      <c r="C70" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="D70" s="44"/>
-      <c r="E70" s="45"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="51"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" s="13"/>
       <c r="B71" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="32"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="34"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="61"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A73" s="46" t="s">
+      <c r="A73" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B73" s="47"/>
+      <c r="B73" s="54"/>
       <c r="C73" s="16" t="s">
         <v>279</v>
       </c>
@@ -6467,39 +6948,39 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A74" s="46" t="s">
+      <c r="A74" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B74" s="47"/>
-      <c r="C74" s="43" t="s">
+      <c r="B74" s="54"/>
+      <c r="C74" s="52" t="s">
         <v>281</v>
       </c>
-      <c r="D74" s="44"/>
-      <c r="E74" s="45"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="51"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="35" t="s">
+      <c r="B75" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C75" s="37" t="s">
+      <c r="C75" s="62" t="s">
         <v>282</v>
       </c>
-      <c r="D75" s="38"/>
-      <c r="E75" s="39"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="49"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B76" s="36"/>
-      <c r="C76" s="40" t="s">
+      <c r="B76" s="79"/>
+      <c r="C76" s="56" t="s">
         <v>283</v>
       </c>
-      <c r="D76" s="41"/>
-      <c r="E76" s="42"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="58"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" s="11" t="s">
@@ -6508,37 +6989,37 @@
       <c r="B77" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C77" s="43" t="s">
+      <c r="C77" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="D77" s="44"/>
-      <c r="E77" s="45"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="51"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" s="12"/>
       <c r="B78" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C78" s="43" t="s">
+      <c r="C78" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="D78" s="44"/>
-      <c r="E78" s="45"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="51"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" s="13"/>
       <c r="B79" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="34"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A81" s="46" t="s">
+      <c r="A81" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B81" s="47"/>
+      <c r="B81" s="54"/>
       <c r="C81" s="16" t="s">
         <v>284</v>
       </c>
@@ -6550,65 +7031,65 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="46" t="s">
+      <c r="A82" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B82" s="60"/>
-      <c r="C82" s="43" t="s">
+      <c r="B82" s="55"/>
+      <c r="C82" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="D82" s="44"/>
-      <c r="E82" s="45"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="51"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A83" s="56" t="s">
+      <c r="A83" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B83" s="61" t="s">
+      <c r="B83" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C83" s="38" t="s">
+      <c r="C83" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="D83" s="38"/>
-      <c r="E83" s="39"/>
+      <c r="D83" s="48"/>
+      <c r="E83" s="49"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" s="56" t="s">
+      <c r="A84" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="61" t="s">
+      <c r="B84" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C84" s="44" t="s">
+      <c r="C84" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="D84" s="44"/>
-      <c r="E84" s="45"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="51"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" s="12"/>
       <c r="B85" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="43"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="45"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="50"/>
+      <c r="E85" s="51"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" s="13"/>
       <c r="B86" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C86" s="32"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="34"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="61"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A88" s="46" t="s">
+      <c r="A88" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B88" s="47"/>
+      <c r="B88" s="54"/>
       <c r="C88" s="16" t="s">
         <v>288</v>
       </c>
@@ -6620,39 +7101,39 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A89" s="46" t="s">
+      <c r="A89" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B89" s="47"/>
-      <c r="C89" s="43" t="s">
+      <c r="B89" s="54"/>
+      <c r="C89" s="52" t="s">
         <v>290</v>
       </c>
-      <c r="D89" s="44"/>
-      <c r="E89" s="45"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="51"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B90" s="35" t="s">
+      <c r="B90" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C90" s="37" t="s">
+      <c r="C90" s="62" t="s">
         <v>291</v>
       </c>
-      <c r="D90" s="38"/>
-      <c r="E90" s="39"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="49"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="36"/>
-      <c r="C91" s="40" t="s">
+      <c r="B91" s="79"/>
+      <c r="C91" s="56" t="s">
         <v>293</v>
       </c>
-      <c r="D91" s="41"/>
-      <c r="E91" s="42"/>
+      <c r="D91" s="57"/>
+      <c r="E91" s="58"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" s="11" t="s">
@@ -6661,37 +7142,37 @@
       <c r="B92" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C92" s="43" t="s">
+      <c r="C92" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="D92" s="44"/>
-      <c r="E92" s="45"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="51"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" s="12"/>
       <c r="B93" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C93" s="43" t="s">
+      <c r="C93" s="52" t="s">
         <v>307</v>
       </c>
-      <c r="D93" s="44"/>
-      <c r="E93" s="45"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="51"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" s="13"/>
       <c r="B94" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C94" s="32"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="34"/>
+      <c r="C94" s="59"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="61"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A96" s="46" t="s">
+      <c r="A96" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B96" s="47"/>
+      <c r="B96" s="54"/>
       <c r="C96" s="16" t="s">
         <v>294</v>
       </c>
@@ -6703,39 +7184,39 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A97" s="46" t="s">
+      <c r="A97" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B97" s="47"/>
-      <c r="C97" s="43" t="s">
+      <c r="B97" s="54"/>
+      <c r="C97" s="52" t="s">
         <v>296</v>
       </c>
-      <c r="D97" s="44"/>
-      <c r="E97" s="45"/>
+      <c r="D97" s="50"/>
+      <c r="E97" s="51"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B98" s="35" t="s">
+      <c r="B98" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C98" s="37" t="s">
+      <c r="C98" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="D98" s="38"/>
-      <c r="E98" s="39"/>
+      <c r="D98" s="48"/>
+      <c r="E98" s="49"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B99" s="36"/>
-      <c r="C99" s="40" t="s">
+      <c r="B99" s="79"/>
+      <c r="C99" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="D99" s="41"/>
-      <c r="E99" s="42"/>
+      <c r="D99" s="57"/>
+      <c r="E99" s="58"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" s="11" t="s">
@@ -6744,35 +7225,35 @@
       <c r="B100" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C100" s="43" t="s">
+      <c r="C100" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="D100" s="44"/>
-      <c r="E100" s="45"/>
+      <c r="D100" s="50"/>
+      <c r="E100" s="51"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" s="12"/>
       <c r="B101" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C101" s="43"/>
-      <c r="D101" s="44"/>
-      <c r="E101" s="45"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="50"/>
+      <c r="E101" s="51"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" s="13"/>
       <c r="B102" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C102" s="32"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="34"/>
+      <c r="C102" s="59"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="61"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A104" s="46" t="s">
+      <c r="A104" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B104" s="47"/>
+      <c r="B104" s="54"/>
       <c r="C104" s="16" t="s">
         <v>299</v>
       </c>
@@ -6784,67 +7265,67 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A105" s="46" t="s">
+      <c r="A105" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B105" s="60"/>
-      <c r="C105" s="43" t="s">
+      <c r="B105" s="55"/>
+      <c r="C105" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="D105" s="44"/>
-      <c r="E105" s="45"/>
+      <c r="D105" s="50"/>
+      <c r="E105" s="51"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A106" s="56" t="s">
+      <c r="A106" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B106" s="61" t="s">
+      <c r="B106" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="38" t="s">
+      <c r="C106" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="D106" s="38"/>
-      <c r="E106" s="39"/>
+      <c r="D106" s="48"/>
+      <c r="E106" s="49"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A107" s="56" t="s">
+      <c r="A107" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B107" s="61" t="s">
+      <c r="B107" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C107" s="44" t="s">
+      <c r="C107" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="D107" s="44"/>
-      <c r="E107" s="45"/>
+      <c r="D107" s="50"/>
+      <c r="E107" s="51"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" s="12"/>
       <c r="B108" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C108" s="43" t="s">
+      <c r="C108" s="52" t="s">
         <v>307</v>
       </c>
-      <c r="D108" s="44"/>
-      <c r="E108" s="45"/>
+      <c r="D108" s="50"/>
+      <c r="E108" s="51"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" s="13"/>
       <c r="B109" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C109" s="32"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="34"/>
+      <c r="C109" s="59"/>
+      <c r="D109" s="60"/>
+      <c r="E109" s="61"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A111" s="46" t="s">
+      <c r="A111" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B111" s="47"/>
+      <c r="B111" s="54"/>
       <c r="C111" s="16" t="s">
         <v>301</v>
       </c>
@@ -6856,65 +7337,65 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A112" s="46" t="s">
+      <c r="A112" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B112" s="60"/>
-      <c r="C112" s="43" t="s">
+      <c r="B112" s="55"/>
+      <c r="C112" s="52" t="s">
         <v>302</v>
       </c>
-      <c r="D112" s="44"/>
-      <c r="E112" s="45"/>
+      <c r="D112" s="50"/>
+      <c r="E112" s="51"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A113" s="56" t="s">
+      <c r="A113" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B113" s="61" t="s">
+      <c r="B113" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C113" s="38" t="s">
+      <c r="C113" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D113" s="38"/>
-      <c r="E113" s="39"/>
+      <c r="D113" s="48"/>
+      <c r="E113" s="49"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A114" s="56" t="s">
+      <c r="A114" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B114" s="61" t="s">
+      <c r="B114" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C114" s="44" t="s">
+      <c r="C114" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="D114" s="44"/>
-      <c r="E114" s="45"/>
+      <c r="D114" s="50"/>
+      <c r="E114" s="51"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" s="12"/>
       <c r="B115" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C115" s="43"/>
-      <c r="D115" s="44"/>
-      <c r="E115" s="45"/>
+      <c r="C115" s="52"/>
+      <c r="D115" s="50"/>
+      <c r="E115" s="51"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" s="13"/>
       <c r="B116" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C116" s="32"/>
-      <c r="D116" s="33"/>
-      <c r="E116" s="34"/>
+      <c r="C116" s="59"/>
+      <c r="D116" s="60"/>
+      <c r="E116" s="61"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A118" s="46" t="s">
+      <c r="A118" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B118" s="47"/>
+      <c r="B118" s="54"/>
       <c r="C118" s="16" t="s">
         <v>304</v>
       </c>
@@ -6926,74 +7407,74 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A119" s="46" t="s">
+      <c r="A119" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B119" s="60"/>
-      <c r="C119" s="37" t="s">
+      <c r="B119" s="55"/>
+      <c r="C119" s="62" t="s">
         <v>305</v>
       </c>
-      <c r="D119" s="38"/>
-      <c r="E119" s="39"/>
+      <c r="D119" s="48"/>
+      <c r="E119" s="49"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A120" s="56" t="s">
+      <c r="A120" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B120" s="88" t="s">
+      <c r="B120" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="C120" s="50" t="s">
+      <c r="C120" s="84" t="s">
         <v>306</v>
       </c>
-      <c r="D120" s="51"/>
-      <c r="E120" s="52"/>
+      <c r="D120" s="85"/>
+      <c r="E120" s="86"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A121" s="56"/>
-      <c r="B121" s="89"/>
-      <c r="C121" s="53" t="s">
+      <c r="A121" s="20"/>
+      <c r="B121" s="96"/>
+      <c r="C121" s="87" t="s">
         <v>315</v>
       </c>
-      <c r="D121" s="54"/>
-      <c r="E121" s="55"/>
+      <c r="D121" s="69"/>
+      <c r="E121" s="88"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A122" s="56" t="s">
+      <c r="A122" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B122" s="61" t="s">
+      <c r="B122" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C122" s="41" t="s">
+      <c r="C122" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="D122" s="41"/>
-      <c r="E122" s="42"/>
+      <c r="D122" s="57"/>
+      <c r="E122" s="58"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" s="12"/>
       <c r="B123" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C123" s="43"/>
-      <c r="D123" s="44"/>
-      <c r="E123" s="45"/>
+      <c r="C123" s="52"/>
+      <c r="D123" s="50"/>
+      <c r="E123" s="51"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" s="13"/>
       <c r="B124" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C124" s="32"/>
-      <c r="D124" s="33"/>
-      <c r="E124" s="34"/>
+      <c r="C124" s="59"/>
+      <c r="D124" s="60"/>
+      <c r="E124" s="61"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A126" s="46" t="s">
+      <c r="A126" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B126" s="47"/>
+      <c r="B126" s="54"/>
       <c r="C126" s="16" t="s">
         <v>307</v>
       </c>
@@ -7005,37 +7486,37 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A127" s="46" t="s">
+      <c r="A127" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B127" s="47"/>
-      <c r="C127" s="43" t="s">
+      <c r="B127" s="54"/>
+      <c r="C127" s="52" t="s">
         <v>309</v>
       </c>
-      <c r="D127" s="44"/>
-      <c r="E127" s="45"/>
+      <c r="D127" s="50"/>
+      <c r="E127" s="51"/>
     </row>
     <row r="128" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B128" s="35" t="s">
+      <c r="B128" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C128" s="37" t="s">
+      <c r="C128" s="62" t="s">
         <v>314</v>
       </c>
-      <c r="D128" s="38"/>
-      <c r="E128" s="39"/>
+      <c r="D128" s="48"/>
+      <c r="E128" s="49"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B129" s="36"/>
-      <c r="C129" s="40"/>
-      <c r="D129" s="41"/>
-      <c r="E129" s="42"/>
+      <c r="B129" s="79"/>
+      <c r="C129" s="56"/>
+      <c r="D129" s="57"/>
+      <c r="E129" s="58"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" s="11" t="s">
@@ -7044,35 +7525,35 @@
       <c r="B130" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C130" s="43" t="s">
+      <c r="C130" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="D130" s="44"/>
-      <c r="E130" s="45"/>
+      <c r="D130" s="50"/>
+      <c r="E130" s="51"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" s="12"/>
       <c r="B131" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C131" s="43"/>
-      <c r="D131" s="44"/>
-      <c r="E131" s="45"/>
+      <c r="C131" s="52"/>
+      <c r="D131" s="50"/>
+      <c r="E131" s="51"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" s="13"/>
       <c r="B132" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C132" s="32"/>
-      <c r="D132" s="33"/>
-      <c r="E132" s="34"/>
+      <c r="C132" s="59"/>
+      <c r="D132" s="60"/>
+      <c r="E132" s="61"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A134" s="46" t="s">
+      <c r="A134" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B134" s="47"/>
+      <c r="B134" s="54"/>
       <c r="C134" s="16" t="s">
         <v>310</v>
       </c>
@@ -7084,37 +7565,37 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A135" s="46" t="s">
+      <c r="A135" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B135" s="47"/>
-      <c r="C135" s="43" t="s">
+      <c r="B135" s="54"/>
+      <c r="C135" s="52" t="s">
         <v>312</v>
       </c>
-      <c r="D135" s="44"/>
-      <c r="E135" s="45"/>
+      <c r="D135" s="50"/>
+      <c r="E135" s="51"/>
     </row>
     <row r="136" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B136" s="35" t="s">
+      <c r="B136" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C136" s="37" t="s">
+      <c r="C136" s="62" t="s">
         <v>313</v>
       </c>
-      <c r="D136" s="38"/>
-      <c r="E136" s="39"/>
+      <c r="D136" s="48"/>
+      <c r="E136" s="49"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B137" s="36"/>
-      <c r="C137" s="40"/>
-      <c r="D137" s="41"/>
-      <c r="E137" s="42"/>
+      <c r="B137" s="79"/>
+      <c r="C137" s="56"/>
+      <c r="D137" s="57"/>
+      <c r="E137" s="58"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" s="11" t="s">
@@ -7123,29 +7604,29 @@
       <c r="B138" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C138" s="43" t="s">
+      <c r="C138" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="D138" s="44"/>
-      <c r="E138" s="45"/>
+      <c r="D138" s="50"/>
+      <c r="E138" s="51"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" s="12"/>
       <c r="B139" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C139" s="43"/>
-      <c r="D139" s="44"/>
-      <c r="E139" s="45"/>
+      <c r="C139" s="52"/>
+      <c r="D139" s="50"/>
+      <c r="E139" s="51"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" s="13"/>
       <c r="B140" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C140" s="32"/>
-      <c r="D140" s="33"/>
-      <c r="E140" s="34"/>
+      <c r="C140" s="59"/>
+      <c r="D140" s="60"/>
+      <c r="E140" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="151">
@@ -7161,30 +7642,6 @@
     <mergeCell ref="C68:E68"/>
     <mergeCell ref="C128:E129"/>
     <mergeCell ref="C132:E132"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C13:E14"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="C131:E131"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C124:E124"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="C121:E121"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="C115:E115"/>
     <mergeCell ref="C107:E107"/>
     <mergeCell ref="C108:E108"/>
     <mergeCell ref="C109:E109"/>
@@ -7197,6 +7654,25 @@
     <mergeCell ref="C105:E105"/>
     <mergeCell ref="C106:E106"/>
     <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:E127"/>
     <mergeCell ref="C98:E98"/>
     <mergeCell ref="C99:E99"/>
     <mergeCell ref="C100:E100"/>
@@ -7264,6 +7740,8 @@
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
@@ -7273,13 +7751,6 @@
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C34:E34"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
@@ -7289,6 +7760,18 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C16:E16"/>
@@ -7297,9 +7780,7 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C13:E14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
